--- a/Connections_Table.xlsx
+++ b/Connections_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>Expansion Board J11</t>
   </si>
@@ -137,15 +137,6 @@
     <t>H-bridge (1)</t>
   </si>
   <si>
-    <t>Expansion Board J10 (59)</t>
-  </si>
-  <si>
-    <t>H-bridge (2)</t>
-  </si>
-  <si>
-    <t>H-bridge (7)</t>
-  </si>
-  <si>
     <t>Expansion Board J11 (18)</t>
   </si>
   <si>
@@ -155,32 +146,59 @@
     <t>H-Bridge (3)</t>
   </si>
   <si>
-    <t>H-Bridge (5)</t>
-  </si>
-  <si>
-    <t>Motor1(-)</t>
+    <t>Motor1 (+)</t>
+  </si>
+  <si>
+    <t>Motor1 (-)</t>
+  </si>
+  <si>
+    <t>H-Bridge (6)</t>
+  </si>
+  <si>
+    <t>Expansion Board J10 (47)</t>
+  </si>
+  <si>
+    <t>Expansion Board J10 (49)</t>
+  </si>
+  <si>
+    <t>Expansion Board J10 (28)</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>H-bridge (16)</t>
+  </si>
+  <si>
+    <t>Expansion Board J10 (27)</t>
+  </si>
+  <si>
+    <t>H-Bridge(2)(15)</t>
+  </si>
+  <si>
+    <t>H-Bridge(7)(10)</t>
+  </si>
+  <si>
+    <t>H-bridge (9)</t>
+  </si>
+  <si>
+    <t>H-Bridge (11)</t>
+  </si>
+  <si>
+    <t>H-Bridge (14)</t>
+  </si>
+  <si>
+    <t>Motor2 (-)</t>
   </si>
   <si>
     <t>Motor2(+)</t>
-  </si>
-  <si>
-    <t>Motor1 (+)</t>
-  </si>
-  <si>
-    <t>Motor2 (-)</t>
-  </si>
-  <si>
-    <t>Expansion Board J11 (40)</t>
-  </si>
-  <si>
-    <t>H-bridge (8)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +212,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +251,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -239,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -249,6 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,26 +563,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +596,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>4</v>
       </c>
@@ -631,11 +663,11 @@
       <c r="N3" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>A3+2</f>
         <v>6</v>
@@ -669,13 +701,13 @@
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" ref="A5:A24" si="0">A4+2</f>
         <v>8</v>
@@ -709,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -755,7 +787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -795,7 +827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -829,13 +861,13 @@
         <v>6</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -869,19 +901,19 @@
         <v>7</v>
       </c>
       <c r="N9" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -909,19 +941,19 @@
         <v>8</v>
       </c>
       <c r="N10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -945,8 +977,17 @@
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -976,8 +1017,17 @@
       <c r="K12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1007,8 +1057,17 @@
       <c r="K13" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1038,8 +1097,17 @@
       <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1069,8 +1137,17 @@
       <c r="K15" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1086,10 +1163,10 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>7</v>
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="I16">
         <v>14</v>
@@ -1100,8 +1177,17 @@
       <c r="K16" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1131,8 +1217,17 @@
       <c r="K17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1162,8 +1257,17 @@
       <c r="K18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1185,7 +1289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1208,16 +1312,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
@@ -1230,7 +1334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1245,13 +1349,13 @@
         <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1267,13 +1371,13 @@
         <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1295,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>A24+2</f>
         <v>48</v>
@@ -1317,7 +1421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E26">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -1329,7 +1433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E27">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -1341,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E28">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -1353,7 +1457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1361,7 +1465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1381,47 +1485,48 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>13</v>
+        <v>39</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>13</v>
+        <v>52</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Connections_Table.xlsx
+++ b/Connections_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="60">
   <si>
     <t>Expansion Board J11</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>Motor2(+)</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>Expansion Board J11 (34)</t>
+  </si>
+  <si>
+    <t>H-bridge (1) Pot(1)</t>
+  </si>
+  <si>
+    <t>Pot(2)</t>
   </si>
 </sst>
 </file>
@@ -563,26 +575,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -634,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -667,7 +679,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+2</f>
         <v>6</v>
@@ -707,7 +719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A24" si="0">A4+2</f>
         <v>8</v>
@@ -747,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -787,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -827,7 +839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -867,7 +879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -907,13 +919,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -947,7 +959,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -987,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1027,7 +1039,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1067,7 +1079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1107,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1147,7 +1159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1187,7 +1199,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1227,16 +1239,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
@@ -1267,7 +1279,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1289,7 +1301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1312,7 +1324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1333,8 +1345,11 @@
       <c r="G21" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1354,8 +1369,17 @@
       <c r="G22" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1376,8 +1400,17 @@
       <c r="G23" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1398,8 +1431,17 @@
       <c r="G24" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A24+2</f>
         <v>48</v>
@@ -1420,8 +1462,17 @@
       <c r="G25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>8</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="2"/>
         <v>55</v>
@@ -1433,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="2"/>
         <v>57</v>
@@ -1445,7 +1496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E28">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -1457,7 +1508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1465,7 +1516,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1485,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>31</v>
       </c>
@@ -1505,7 +1556,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
